--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf2-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf2-Fgfr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Fgf2</t>
+  </si>
+  <si>
+    <t>Fgfr1</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Fgf2</t>
-  </si>
-  <si>
-    <t>Fgfr1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.397979</v>
+        <v>1.013824333333333</v>
       </c>
       <c r="H2">
-        <v>1.193937</v>
+        <v>3.041473</v>
       </c>
       <c r="I2">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844482</v>
       </c>
       <c r="J2">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844485</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.855348</v>
+        <v>10.48767733333333</v>
       </c>
       <c r="N2">
-        <v>17.566044</v>
+        <v>31.463032</v>
       </c>
       <c r="O2">
-        <v>0.05092948808292105</v>
+        <v>0.1222087640673552</v>
       </c>
       <c r="P2">
-        <v>0.05092948808292105</v>
+        <v>0.1222087640673552</v>
       </c>
       <c r="Q2">
-        <v>2.330305541692</v>
+        <v>10.63266248068178</v>
       </c>
       <c r="R2">
-        <v>20.972749875228</v>
+        <v>95.69396232613599</v>
       </c>
       <c r="S2">
-        <v>0.001366426298668198</v>
+        <v>0.008609495849309352</v>
       </c>
       <c r="T2">
-        <v>0.001366426298668199</v>
+        <v>0.008609495849309354</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.397979</v>
+        <v>1.013824333333333</v>
       </c>
       <c r="H3">
-        <v>1.193937</v>
+        <v>3.041473</v>
       </c>
       <c r="I3">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844482</v>
       </c>
       <c r="J3">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844485</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>188.990975</v>
       </c>
       <c r="O3">
-        <v>0.547944295769846</v>
+        <v>0.7340790765058636</v>
       </c>
       <c r="P3">
-        <v>0.547944295769846</v>
+        <v>0.7340790765058635</v>
       </c>
       <c r="Q3">
-        <v>25.07147974650833</v>
+        <v>63.86788307846388</v>
       </c>
       <c r="R3">
-        <v>225.643317718575</v>
+        <v>574.8109477061749</v>
       </c>
       <c r="S3">
-        <v>0.01470121778420594</v>
+        <v>0.05171520070981803</v>
       </c>
       <c r="T3">
-        <v>0.01470121778420594</v>
+        <v>0.05171520070981805</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.397979</v>
+        <v>1.013824333333333</v>
       </c>
       <c r="H4">
-        <v>1.193937</v>
+        <v>3.041473</v>
       </c>
       <c r="I4">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844482</v>
       </c>
       <c r="J4">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844485</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2640463333333333</v>
+        <v>0.3322793333333333</v>
       </c>
       <c r="N4">
-        <v>0.7921389999999999</v>
+        <v>0.996838</v>
       </c>
       <c r="O4">
-        <v>0.002296660179179615</v>
+        <v>0.003871919907635547</v>
       </c>
       <c r="P4">
-        <v>0.002296660179179615</v>
+        <v>0.003871919907635547</v>
       </c>
       <c r="Q4">
-        <v>0.1050848956936667</v>
+        <v>0.336872873597111</v>
       </c>
       <c r="R4">
-        <v>0.9457640612429999</v>
+        <v>3.031855862374</v>
       </c>
       <c r="S4">
-        <v>6.161885748440162E-05</v>
+        <v>0.0002727732223465887</v>
       </c>
       <c r="T4">
-        <v>6.161885748440162E-05</v>
+        <v>0.0002727732223465888</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.397979</v>
+        <v>1.013824333333333</v>
       </c>
       <c r="H5">
-        <v>1.193937</v>
+        <v>3.041473</v>
       </c>
       <c r="I5">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844482</v>
       </c>
       <c r="J5">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844485</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>43.864011</v>
+        <v>10.25458433333333</v>
       </c>
       <c r="N5">
-        <v>131.592033</v>
+        <v>30.763753</v>
       </c>
       <c r="O5">
-        <v>0.3815267043894944</v>
+        <v>0.1194926233493133</v>
       </c>
       <c r="P5">
-        <v>0.3815267043894944</v>
+        <v>0.1194926233493133</v>
       </c>
       <c r="Q5">
-        <v>17.456955233769</v>
+        <v>10.39634712535211</v>
       </c>
       <c r="R5">
-        <v>157.112597103921</v>
+        <v>93.567124128169</v>
       </c>
       <c r="S5">
-        <v>0.01023627258285436</v>
+        <v>0.008418146215618321</v>
       </c>
       <c r="T5">
-        <v>0.01023627258285437</v>
+        <v>0.008418146215618323</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.397979</v>
+        <v>1.013824333333333</v>
       </c>
       <c r="H6">
-        <v>1.193937</v>
+        <v>3.041473</v>
       </c>
       <c r="I6">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844482</v>
       </c>
       <c r="J6">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844485</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.763133</v>
+        <v>0.7572163333333334</v>
       </c>
       <c r="N6">
-        <v>2.289399</v>
+        <v>2.271649</v>
       </c>
       <c r="O6">
-        <v>0.006637687978440185</v>
+        <v>0.008823543029319092</v>
       </c>
       <c r="P6">
-        <v>0.006637687978440185</v>
+        <v>0.00882354302931909</v>
       </c>
       <c r="Q6">
-        <v>0.303710908207</v>
+        <v>0.7676843443307777</v>
       </c>
       <c r="R6">
-        <v>2.733398173863</v>
+        <v>6.909159098977</v>
       </c>
       <c r="S6">
-        <v>0.0001780876218768822</v>
+        <v>0.0006216105503305512</v>
       </c>
       <c r="T6">
-        <v>0.0001780876218768822</v>
+        <v>0.0006216105503305513</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.397979</v>
+        <v>1.013824333333333</v>
       </c>
       <c r="H7">
-        <v>1.193937</v>
+        <v>3.041473</v>
       </c>
       <c r="I7">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844482</v>
       </c>
       <c r="J7">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844485</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.226170666666667</v>
+        <v>0.9889696666666666</v>
       </c>
       <c r="N7">
-        <v>3.678512</v>
+        <v>2.966909</v>
       </c>
       <c r="O7">
-        <v>0.01066516360011862</v>
+        <v>0.01152407314051338</v>
       </c>
       <c r="P7">
-        <v>0.01066516360011862</v>
+        <v>0.01152407314051338</v>
       </c>
       <c r="Q7">
-        <v>0.4879901757493334</v>
+        <v>1.002641512995222</v>
       </c>
       <c r="R7">
-        <v>4.391911581744</v>
+        <v>9.023773616957</v>
       </c>
       <c r="S7">
-        <v>0.0002861438544026505</v>
+        <v>0.0008118604310219867</v>
       </c>
       <c r="T7">
-        <v>0.0002861438544026505</v>
+        <v>0.000811860431021987</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.34891866666666</v>
+        <v>11.34891866666667</v>
       </c>
       <c r="H8">
-        <v>34.04675599999999</v>
+        <v>34.046756</v>
       </c>
       <c r="I8">
-        <v>0.7650877144845757</v>
+        <v>0.7886188286984264</v>
       </c>
       <c r="J8">
-        <v>0.7650877144845759</v>
+        <v>0.7886188286984265</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.855348</v>
+        <v>10.48767733333333</v>
       </c>
       <c r="N8">
-        <v>17.566044</v>
+        <v>31.463032</v>
       </c>
       <c r="O8">
-        <v>0.05092948808292105</v>
+        <v>0.1222087640673552</v>
       </c>
       <c r="P8">
-        <v>0.05092948808292105</v>
+        <v>0.1222087640673552</v>
       </c>
       <c r="Q8">
-        <v>66.45186821702933</v>
+        <v>119.0237970582436</v>
       </c>
       <c r="R8">
-        <v>598.0668139532639</v>
+        <v>1071.214173524192</v>
       </c>
       <c r="S8">
-        <v>0.0389655256372315</v>
+        <v>0.09637613237548003</v>
       </c>
       <c r="T8">
-        <v>0.03896552563723151</v>
+        <v>0.09637613237548003</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.34891866666666</v>
+        <v>11.34891866666667</v>
       </c>
       <c r="H9">
-        <v>34.04675599999999</v>
+        <v>34.046756</v>
       </c>
       <c r="I9">
-        <v>0.7650877144845757</v>
+        <v>0.7886188286984264</v>
       </c>
       <c r="J9">
-        <v>0.7650877144845759</v>
+        <v>0.7886188286984265</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>188.990975</v>
       </c>
       <c r="O9">
-        <v>0.547944295769846</v>
+        <v>0.7340790765058636</v>
       </c>
       <c r="P9">
-        <v>0.547944295769846</v>
+        <v>0.7340790765058635</v>
       </c>
       <c r="Q9">
-        <v>714.9477346696776</v>
+        <v>714.9477346696779</v>
       </c>
       <c r="R9">
-        <v>6434.529612027099</v>
+        <v>6434.5296120271</v>
       </c>
       <c r="S9">
-        <v>0.4192254489154119</v>
+        <v>0.5789085814860766</v>
       </c>
       <c r="T9">
-        <v>0.419225448915412</v>
+        <v>0.5789085814860766</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,14 +1024,14 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>27</v>
       </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
       <c r="E10">
         <v>3</v>
       </c>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.34891866666666</v>
+        <v>11.34891866666667</v>
       </c>
       <c r="H10">
-        <v>34.04675599999999</v>
+        <v>34.046756</v>
       </c>
       <c r="I10">
-        <v>0.7650877144845757</v>
+        <v>0.7886188286984264</v>
       </c>
       <c r="J10">
-        <v>0.7650877144845759</v>
+        <v>0.7886188286984265</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2640463333333333</v>
+        <v>0.3322793333333333</v>
       </c>
       <c r="N10">
-        <v>0.7921389999999999</v>
+        <v>0.996838</v>
       </c>
       <c r="O10">
-        <v>0.002296660179179615</v>
+        <v>0.003871919907635547</v>
       </c>
       <c r="P10">
-        <v>0.002296660179179615</v>
+        <v>0.003871919907635547</v>
       </c>
       <c r="Q10">
-        <v>2.996640361231555</v>
+        <v>3.771011128614222</v>
       </c>
       <c r="R10">
-        <v>26.96976325108399</v>
+        <v>33.939100157528</v>
       </c>
       <c r="S10">
-        <v>0.001757146487436267</v>
+        <v>0.003053468942373665</v>
       </c>
       <c r="T10">
-        <v>0.001757146487436268</v>
+        <v>0.003053468942373665</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>11.34891866666666</v>
+        <v>11.34891866666667</v>
       </c>
       <c r="H11">
-        <v>34.04675599999999</v>
+        <v>34.046756</v>
       </c>
       <c r="I11">
-        <v>0.7650877144845757</v>
+        <v>0.7886188286984264</v>
       </c>
       <c r="J11">
-        <v>0.7650877144845759</v>
+        <v>0.7886188286984265</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>43.864011</v>
+        <v>10.25458433333333</v>
       </c>
       <c r="N11">
-        <v>131.592033</v>
+        <v>30.763753</v>
       </c>
       <c r="O11">
-        <v>0.3815267043894944</v>
+        <v>0.1194926233493133</v>
       </c>
       <c r="P11">
-        <v>0.3815267043894944</v>
+        <v>0.1194926233493133</v>
       </c>
       <c r="Q11">
-        <v>497.8090932327719</v>
+        <v>116.3784435594742</v>
       </c>
       <c r="R11">
-        <v>4480.281839094947</v>
+        <v>1047.405992035268</v>
       </c>
       <c r="S11">
-        <v>0.2919013942761906</v>
+        <v>0.09423413266383772</v>
       </c>
       <c r="T11">
-        <v>0.2919013942761907</v>
+        <v>0.09423413266383772</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>11.34891866666666</v>
+        <v>11.34891866666667</v>
       </c>
       <c r="H12">
-        <v>34.04675599999999</v>
+        <v>34.046756</v>
       </c>
       <c r="I12">
-        <v>0.7650877144845757</v>
+        <v>0.7886188286984264</v>
       </c>
       <c r="J12">
-        <v>0.7650877144845759</v>
+        <v>0.7886188286984265</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.763133</v>
+        <v>0.7572163333333334</v>
       </c>
       <c r="N12">
-        <v>2.289399</v>
+        <v>2.271649</v>
       </c>
       <c r="O12">
-        <v>0.006637687978440185</v>
+        <v>0.008823543029319092</v>
       </c>
       <c r="P12">
-        <v>0.006637687978440185</v>
+        <v>0.00882354302931909</v>
       </c>
       <c r="Q12">
-        <v>8.660734348849331</v>
+        <v>8.593586580071557</v>
       </c>
       <c r="R12">
-        <v>77.94660913964398</v>
+        <v>77.342279220644</v>
       </c>
       <c r="S12">
-        <v>0.005078413524886545</v>
+        <v>0.006958412168751787</v>
       </c>
       <c r="T12">
-        <v>0.005078413524886546</v>
+        <v>0.006958412168751787</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>11.34891866666666</v>
+        <v>11.34891866666667</v>
       </c>
       <c r="H13">
-        <v>34.04675599999999</v>
+        <v>34.046756</v>
       </c>
       <c r="I13">
-        <v>0.7650877144845757</v>
+        <v>0.7886188286984264</v>
       </c>
       <c r="J13">
-        <v>0.7650877144845759</v>
+        <v>0.7886188286984265</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.226170666666667</v>
+        <v>0.9889696666666666</v>
       </c>
       <c r="N13">
-        <v>3.678512</v>
+        <v>2.966909</v>
       </c>
       <c r="O13">
-        <v>0.01066516360011862</v>
+        <v>0.01152407314051338</v>
       </c>
       <c r="P13">
-        <v>0.01066516360011862</v>
+        <v>0.01152407314051338</v>
       </c>
       <c r="Q13">
-        <v>13.91571116745244</v>
+        <v>11.22373631080045</v>
       </c>
       <c r="R13">
-        <v>125.241400507072</v>
+        <v>101.013626797204</v>
       </c>
       <c r="S13">
-        <v>0.008159785643418844</v>
+        <v>0.009088101061906656</v>
       </c>
       <c r="T13">
-        <v>0.008159785643418845</v>
+        <v>0.009088101061906656</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.119535</v>
+        <v>1.483361</v>
       </c>
       <c r="H14">
-        <v>0.358605</v>
+        <v>4.450083</v>
       </c>
       <c r="I14">
-        <v>0.008058455843861933</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="J14">
-        <v>0.008058455843861934</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.855348</v>
+        <v>10.48767733333333</v>
       </c>
       <c r="N14">
-        <v>17.566044</v>
+        <v>31.463032</v>
       </c>
       <c r="O14">
-        <v>0.05092948808292105</v>
+        <v>0.1222087640673552</v>
       </c>
       <c r="P14">
-        <v>0.05092948808292105</v>
+        <v>0.1222087640673552</v>
       </c>
       <c r="Q14">
-        <v>0.69991902318</v>
+        <v>15.55701153685067</v>
       </c>
       <c r="R14">
-        <v>6.29927120862</v>
+        <v>140.013103831656</v>
       </c>
       <c r="S14">
-        <v>0.0004104130308667117</v>
+        <v>0.01259684735573261</v>
       </c>
       <c r="T14">
-        <v>0.0004104130308667118</v>
+        <v>0.01259684735573261</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.119535</v>
+        <v>1.483361</v>
       </c>
       <c r="H15">
-        <v>0.358605</v>
+        <v>4.450083</v>
       </c>
       <c r="I15">
-        <v>0.008058455843861933</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="J15">
-        <v>0.008058455843861934</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>188.990975</v>
       </c>
       <c r="O15">
-        <v>0.547944295769846</v>
+        <v>0.7340790765058636</v>
       </c>
       <c r="P15">
-        <v>0.547944295769846</v>
+        <v>0.7340790765058635</v>
       </c>
       <c r="Q15">
-        <v>7.530345398875</v>
+        <v>93.44728055565834</v>
       </c>
       <c r="R15">
-        <v>67.77310858987499</v>
+        <v>841.025525000925</v>
       </c>
       <c r="S15">
-        <v>0.004415584912357327</v>
+        <v>0.07566627601834677</v>
       </c>
       <c r="T15">
-        <v>0.004415584912357328</v>
+        <v>0.07566627601834679</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>27</v>
       </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.119535</v>
+        <v>1.483361</v>
       </c>
       <c r="H16">
-        <v>0.358605</v>
+        <v>4.450083</v>
       </c>
       <c r="I16">
-        <v>0.008058455843861933</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="J16">
-        <v>0.008058455843861934</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2640463333333333</v>
+        <v>0.3322793333333333</v>
       </c>
       <c r="N16">
-        <v>0.7921389999999999</v>
+        <v>0.996838</v>
       </c>
       <c r="O16">
-        <v>0.002296660179179615</v>
+        <v>0.003871919907635547</v>
       </c>
       <c r="P16">
-        <v>0.002296660179179615</v>
+        <v>0.003871919907635547</v>
       </c>
       <c r="Q16">
-        <v>0.031562778455</v>
+        <v>0.4928902041726667</v>
       </c>
       <c r="R16">
-        <v>0.284065006095</v>
+        <v>4.436011837554</v>
       </c>
       <c r="S16">
-        <v>1.850753464227496E-05</v>
+        <v>0.0003991038156905469</v>
       </c>
       <c r="T16">
-        <v>1.850753464227496E-05</v>
+        <v>0.000399103815690547</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.119535</v>
+        <v>1.483361</v>
       </c>
       <c r="H17">
-        <v>0.358605</v>
+        <v>4.450083</v>
       </c>
       <c r="I17">
-        <v>0.008058455843861933</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="J17">
-        <v>0.008058455843861934</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>43.864011</v>
+        <v>10.25458433333333</v>
       </c>
       <c r="N17">
-        <v>131.592033</v>
+        <v>30.763753</v>
       </c>
       <c r="O17">
-        <v>0.3815267043894944</v>
+        <v>0.1194926233493133</v>
       </c>
       <c r="P17">
-        <v>0.3815267043894944</v>
+        <v>0.1194926233493133</v>
       </c>
       <c r="Q17">
-        <v>5.243284554885</v>
+        <v>15.21125047127767</v>
       </c>
       <c r="R17">
-        <v>47.189560993965</v>
+        <v>136.901254241499</v>
       </c>
       <c r="S17">
-        <v>0.003074516100576906</v>
+        <v>0.01231687717288216</v>
       </c>
       <c r="T17">
-        <v>0.003074516100576906</v>
+        <v>0.01231687717288217</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.119535</v>
+        <v>1.483361</v>
       </c>
       <c r="H18">
-        <v>0.358605</v>
+        <v>4.450083</v>
       </c>
       <c r="I18">
-        <v>0.008058455843861933</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="J18">
-        <v>0.008058455843861934</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.763133</v>
+        <v>0.7572163333333334</v>
       </c>
       <c r="N18">
-        <v>2.289399</v>
+        <v>2.271649</v>
       </c>
       <c r="O18">
-        <v>0.006637687978440185</v>
+        <v>0.008823543029319092</v>
       </c>
       <c r="P18">
-        <v>0.006637687978440185</v>
+        <v>0.00882354302931909</v>
       </c>
       <c r="Q18">
-        <v>0.091221103155</v>
+        <v>1.123225177429667</v>
       </c>
       <c r="R18">
-        <v>0.820989928395</v>
+        <v>10.109026596867</v>
       </c>
       <c r="S18">
-        <v>5.348951547959341E-05</v>
+        <v>0.0009094996216131562</v>
       </c>
       <c r="T18">
-        <v>5.348951547959342E-05</v>
+        <v>0.0009094996216131563</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.119535</v>
+        <v>1.483361</v>
       </c>
       <c r="H19">
-        <v>0.358605</v>
+        <v>4.450083</v>
       </c>
       <c r="I19">
-        <v>0.008058455843861933</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="J19">
-        <v>0.008058455843861934</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.226170666666667</v>
+        <v>0.9889696666666666</v>
       </c>
       <c r="N19">
-        <v>3.678512</v>
+        <v>2.966909</v>
       </c>
       <c r="O19">
-        <v>0.01066516360011862</v>
+        <v>0.01152407314051338</v>
       </c>
       <c r="P19">
-        <v>0.01066516360011862</v>
+        <v>0.01152407314051338</v>
       </c>
       <c r="Q19">
-        <v>0.14657031064</v>
+        <v>1.466999033716333</v>
       </c>
       <c r="R19">
-        <v>1.31913279576</v>
+        <v>13.202991303447</v>
       </c>
       <c r="S19">
-        <v>8.594474993911946E-05</v>
+        <v>0.001187860718297883</v>
       </c>
       <c r="T19">
-        <v>8.594474993911946E-05</v>
+        <v>0.001187860718297883</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>2.379094333333333</v>
+        <v>0.3139993333333334</v>
       </c>
       <c r="H20">
-        <v>7.137283</v>
+        <v>0.941998</v>
       </c>
       <c r="I20">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="J20">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.855348</v>
+        <v>10.48767733333333</v>
       </c>
       <c r="N20">
-        <v>17.566044</v>
+        <v>31.463032</v>
       </c>
       <c r="O20">
-        <v>0.05092948808292105</v>
+        <v>0.1222087640673552</v>
       </c>
       <c r="P20">
-        <v>0.05092948808292105</v>
+        <v>0.1222087640673552</v>
       </c>
       <c r="Q20">
-        <v>13.93042524649467</v>
+        <v>3.293123690881778</v>
       </c>
       <c r="R20">
-        <v>125.373827218452</v>
+        <v>29.638113217936</v>
       </c>
       <c r="S20">
-        <v>0.008168413569759087</v>
+        <v>0.002666513189845089</v>
       </c>
       <c r="T20">
-        <v>0.008168413569759088</v>
+        <v>0.002666513189845089</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>2.379094333333333</v>
+        <v>0.3139993333333334</v>
       </c>
       <c r="H21">
-        <v>7.137283</v>
+        <v>0.941998</v>
       </c>
       <c r="I21">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="J21">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>188.990975</v>
       </c>
       <c r="O21">
-        <v>0.547944295769846</v>
+        <v>0.7340790765058636</v>
       </c>
       <c r="P21">
-        <v>0.547944295769846</v>
+        <v>0.7340790765058635</v>
       </c>
       <c r="Q21">
-        <v>149.8757858912139</v>
+        <v>19.78101338533889</v>
       </c>
       <c r="R21">
-        <v>1348.882073020925</v>
+        <v>178.02912046805</v>
       </c>
       <c r="S21">
-        <v>0.08788298860870439</v>
+        <v>0.01601711264188345</v>
       </c>
       <c r="T21">
-        <v>0.08788298860870443</v>
+        <v>0.01601711264188345</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
         <v>27</v>
       </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>2.379094333333333</v>
+        <v>0.3139993333333334</v>
       </c>
       <c r="H22">
-        <v>7.137283</v>
+        <v>0.941998</v>
       </c>
       <c r="I22">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="J22">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.2640463333333333</v>
+        <v>0.3322793333333333</v>
       </c>
       <c r="N22">
-        <v>0.7921389999999999</v>
+        <v>0.996838</v>
       </c>
       <c r="O22">
-        <v>0.002296660179179615</v>
+        <v>0.003871919907635547</v>
       </c>
       <c r="P22">
-        <v>0.002296660179179615</v>
+        <v>0.003871919907635547</v>
       </c>
       <c r="Q22">
-        <v>0.6281911353707778</v>
+        <v>0.1043354891471111</v>
       </c>
       <c r="R22">
-        <v>5.653720218337</v>
+        <v>0.9390194023240001</v>
       </c>
       <c r="S22">
-        <v>0.000368353794214303</v>
+        <v>8.448269305827865E-05</v>
       </c>
       <c r="T22">
-        <v>0.0003683537942143031</v>
+        <v>8.448269305827866E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>2.379094333333333</v>
+        <v>0.3139993333333334</v>
       </c>
       <c r="H23">
-        <v>7.137283</v>
+        <v>0.941998</v>
       </c>
       <c r="I23">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="J23">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>43.864011</v>
+        <v>10.25458433333333</v>
       </c>
       <c r="N23">
-        <v>131.592033</v>
+        <v>30.763753</v>
       </c>
       <c r="O23">
-        <v>0.3815267043894944</v>
+        <v>0.1194926233493133</v>
       </c>
       <c r="P23">
-        <v>0.3815267043894944</v>
+        <v>0.1194926233493133</v>
       </c>
       <c r="Q23">
-        <v>104.356620007371</v>
+        <v>3.219932644277111</v>
       </c>
       <c r="R23">
-        <v>939.209580066339</v>
+        <v>28.979393798494</v>
       </c>
       <c r="S23">
-        <v>0.06119181689567584</v>
+        <v>0.002607248822797385</v>
       </c>
       <c r="T23">
-        <v>0.06119181689567586</v>
+        <v>0.002607248822797385</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>2.379094333333333</v>
+        <v>0.3139993333333334</v>
       </c>
       <c r="H24">
-        <v>7.137283</v>
+        <v>0.941998</v>
       </c>
       <c r="I24">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="J24">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.763133</v>
+        <v>0.7572163333333334</v>
       </c>
       <c r="N24">
-        <v>2.289399</v>
+        <v>2.271649</v>
       </c>
       <c r="O24">
-        <v>0.006637687978440185</v>
+        <v>0.008823543029319092</v>
       </c>
       <c r="P24">
-        <v>0.006637687978440185</v>
+        <v>0.00882354302931909</v>
       </c>
       <c r="Q24">
-        <v>1.815565395879666</v>
+        <v>0.2377654238557778</v>
       </c>
       <c r="R24">
-        <v>16.340088562917</v>
+        <v>2.139888814702</v>
       </c>
       <c r="S24">
-        <v>0.001064597006485517</v>
+        <v>0.0001925237854126204</v>
       </c>
       <c r="T24">
-        <v>0.001064597006485517</v>
+        <v>0.0001925237854126204</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>2.379094333333333</v>
+        <v>0.3139993333333334</v>
       </c>
       <c r="H25">
-        <v>7.137283</v>
+        <v>0.941998</v>
       </c>
       <c r="I25">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="J25">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.226170666666667</v>
+        <v>0.9889696666666666</v>
       </c>
       <c r="N25">
-        <v>3.678512</v>
+        <v>2.966909</v>
       </c>
       <c r="O25">
-        <v>0.01066516360011862</v>
+        <v>0.01152407314051338</v>
       </c>
       <c r="P25">
-        <v>0.01066516360011862</v>
+        <v>0.01152407314051338</v>
       </c>
       <c r="Q25">
-        <v>2.917175684766222</v>
+        <v>0.3105358160202222</v>
       </c>
       <c r="R25">
-        <v>26.254581162896</v>
+        <v>2.794822344182</v>
       </c>
       <c r="S25">
-        <v>0.00171055061329242</v>
+        <v>0.0002514475394987395</v>
       </c>
       <c r="T25">
-        <v>0.00171055061329242</v>
+        <v>0.0002514475394987395</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.1305996666666666</v>
+        <v>0.2307763333333333</v>
       </c>
       <c r="H26">
-        <v>0.391799</v>
+        <v>0.692329</v>
       </c>
       <c r="I26">
-        <v>0.008804380700685325</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="J26">
-        <v>0.008804380700685326</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>5.855348</v>
+        <v>10.48767733333333</v>
       </c>
       <c r="N26">
-        <v>17.566044</v>
+        <v>31.463032</v>
       </c>
       <c r="O26">
-        <v>0.05092948808292105</v>
+        <v>0.1222087640673552</v>
       </c>
       <c r="P26">
-        <v>0.05092948808292105</v>
+        <v>0.1222087640673552</v>
       </c>
       <c r="Q26">
-        <v>0.7647064970173332</v>
+        <v>2.420307720169777</v>
       </c>
       <c r="R26">
-        <v>6.882358473156</v>
+        <v>21.782769481528</v>
       </c>
       <c r="S26">
-        <v>0.0004484026019730533</v>
+        <v>0.001959775296988168</v>
       </c>
       <c r="T26">
-        <v>0.0004484026019730534</v>
+        <v>0.001959775296988168</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.1305996666666666</v>
+        <v>0.2307763333333333</v>
       </c>
       <c r="H27">
-        <v>0.391799</v>
+        <v>0.692329</v>
       </c>
       <c r="I27">
-        <v>0.008804380700685325</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="J27">
-        <v>0.008804380700685326</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>188.990975</v>
       </c>
       <c r="O27">
-        <v>0.547944295769846</v>
+        <v>0.7340790765058636</v>
       </c>
       <c r="P27">
-        <v>0.547944295769846</v>
+        <v>0.7340790765058635</v>
       </c>
       <c r="Q27">
-        <v>8.227386112669443</v>
+        <v>14.53821474786389</v>
       </c>
       <c r="R27">
-        <v>74.04647501402499</v>
+        <v>130.843932730775</v>
       </c>
       <c r="S27">
-        <v>0.004824310182726644</v>
+        <v>0.01177190564973867</v>
       </c>
       <c r="T27">
-        <v>0.004824310182726645</v>
+        <v>0.01177190564973867</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,31 +2140,31 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
         <v>27</v>
       </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.1305996666666666</v>
+        <v>0.2307763333333333</v>
       </c>
       <c r="H28">
-        <v>0.391799</v>
+        <v>0.692329</v>
       </c>
       <c r="I28">
-        <v>0.008804380700685325</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="J28">
-        <v>0.008804380700685326</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.2640463333333333</v>
+        <v>0.3322793333333333</v>
       </c>
       <c r="N28">
-        <v>0.7921389999999999</v>
+        <v>0.996838</v>
       </c>
       <c r="O28">
-        <v>0.002296660179179615</v>
+        <v>0.003871919907635547</v>
       </c>
       <c r="P28">
-        <v>0.002296660179179615</v>
+        <v>0.003871919907635547</v>
       </c>
       <c r="Q28">
-        <v>0.03448436311788888</v>
+        <v>0.0766822061891111</v>
       </c>
       <c r="R28">
-        <v>0.3103592680609999</v>
+        <v>0.690139855702</v>
       </c>
       <c r="S28">
-        <v>2.02206705576015E-05</v>
+        <v>6.209123416646851E-05</v>
       </c>
       <c r="T28">
-        <v>2.02206705576015E-05</v>
+        <v>6.209123416646851E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.1305996666666666</v>
+        <v>0.2307763333333333</v>
       </c>
       <c r="H29">
-        <v>0.391799</v>
+        <v>0.692329</v>
       </c>
       <c r="I29">
-        <v>0.008804380700685325</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="J29">
-        <v>0.008804380700685326</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>43.864011</v>
+        <v>10.25458433333333</v>
       </c>
       <c r="N29">
-        <v>131.592033</v>
+        <v>30.763753</v>
       </c>
       <c r="O29">
-        <v>0.3815267043894944</v>
+        <v>0.1194926233493133</v>
       </c>
       <c r="P29">
-        <v>0.3815267043894944</v>
+        <v>0.1194926233493133</v>
       </c>
       <c r="Q29">
-        <v>5.728625215262999</v>
+        <v>2.366515372304111</v>
       </c>
       <c r="R29">
-        <v>51.55762693736699</v>
+        <v>21.298638350737</v>
       </c>
       <c r="S29">
-        <v>0.00335910635292294</v>
+        <v>0.001916218474177748</v>
       </c>
       <c r="T29">
-        <v>0.00335910635292294</v>
+        <v>0.001916218474177748</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,31 +2264,31 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.1305996666666666</v>
+        <v>0.2307763333333333</v>
       </c>
       <c r="H30">
-        <v>0.391799</v>
+        <v>0.692329</v>
       </c>
       <c r="I30">
-        <v>0.008804380700685325</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="J30">
-        <v>0.008804380700685326</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.763133</v>
+        <v>0.7572163333333334</v>
       </c>
       <c r="N30">
-        <v>2.289399</v>
+        <v>2.271649</v>
       </c>
       <c r="O30">
-        <v>0.006637687978440185</v>
+        <v>0.008823543029319092</v>
       </c>
       <c r="P30">
-        <v>0.006637687978440185</v>
+        <v>0.00882354302931909</v>
       </c>
       <c r="Q30">
-        <v>0.09966491542233331</v>
+        <v>0.1747476089467778</v>
       </c>
       <c r="R30">
-        <v>0.8969842388009999</v>
+        <v>1.572728480521</v>
       </c>
       <c r="S30">
-        <v>5.844073193454976E-05</v>
+        <v>0.0001414969032109771</v>
       </c>
       <c r="T30">
-        <v>5.844073193454977E-05</v>
+        <v>0.0001414969032109771</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,31 +2326,31 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.1305996666666666</v>
+        <v>0.2307763333333333</v>
       </c>
       <c r="H31">
-        <v>0.391799</v>
+        <v>0.692329</v>
       </c>
       <c r="I31">
-        <v>0.008804380700685325</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="J31">
-        <v>0.008804380700685326</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.226170666666667</v>
+        <v>0.9889696666666666</v>
       </c>
       <c r="N31">
-        <v>3.678512</v>
+        <v>2.966909</v>
       </c>
       <c r="O31">
-        <v>0.01066516360011862</v>
+        <v>0.01152407314051338</v>
       </c>
       <c r="P31">
-        <v>0.01066516360011862</v>
+        <v>0.01152407314051338</v>
       </c>
       <c r="Q31">
-        <v>0.1601374803431111</v>
+        <v>0.2282307934512222</v>
       </c>
       <c r="R31">
-        <v>1.441237323088</v>
+        <v>2.054077141061</v>
       </c>
       <c r="S31">
-        <v>9.390016057053599E-05</v>
+        <v>0.0001848033897881129</v>
       </c>
       <c r="T31">
-        <v>9.3900160570536E-05</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="F32">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G32">
-        <v>0.4573603333333334</v>
-      </c>
-      <c r="H32">
-        <v>1.372081</v>
-      </c>
-      <c r="I32">
-        <v>0.03083296148325295</v>
-      </c>
-      <c r="J32">
-        <v>0.03083296148325296</v>
-      </c>
-      <c r="K32">
-        <v>3</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>5.855348</v>
-      </c>
-      <c r="N32">
-        <v>17.566044</v>
-      </c>
-      <c r="O32">
-        <v>0.05092948808292105</v>
-      </c>
-      <c r="P32">
-        <v>0.05092948808292105</v>
-      </c>
-      <c r="Q32">
-        <v>2.678003913062667</v>
-      </c>
-      <c r="R32">
-        <v>24.102035217564</v>
-      </c>
-      <c r="S32">
-        <v>0.001570306944422495</v>
-      </c>
-      <c r="T32">
-        <v>0.001570306944422495</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G33">
-        <v>0.4573603333333334</v>
-      </c>
-      <c r="H33">
-        <v>1.372081</v>
-      </c>
-      <c r="I33">
-        <v>0.03083296148325295</v>
-      </c>
-      <c r="J33">
-        <v>0.03083296148325296</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>62.99699166666667</v>
-      </c>
-      <c r="N33">
-        <v>188.990975</v>
-      </c>
-      <c r="O33">
-        <v>0.547944295769846</v>
-      </c>
-      <c r="P33">
-        <v>0.547944295769846</v>
-      </c>
-      <c r="Q33">
-        <v>28.81232510766389</v>
-      </c>
-      <c r="R33">
-        <v>259.310925968975</v>
-      </c>
-      <c r="S33">
-        <v>0.01689474536643983</v>
-      </c>
-      <c r="T33">
-        <v>0.01689474536643983</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G34">
-        <v>0.4573603333333334</v>
-      </c>
-      <c r="H34">
-        <v>1.372081</v>
-      </c>
-      <c r="I34">
-        <v>0.03083296148325295</v>
-      </c>
-      <c r="J34">
-        <v>0.03083296148325296</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>0.2640463333333333</v>
-      </c>
-      <c r="N34">
-        <v>0.7921389999999999</v>
-      </c>
-      <c r="O34">
-        <v>0.002296660179179615</v>
-      </c>
-      <c r="P34">
-        <v>0.002296660179179615</v>
-      </c>
-      <c r="Q34">
-        <v>0.1207643190287778</v>
-      </c>
-      <c r="R34">
-        <v>1.086878871259</v>
-      </c>
-      <c r="S34">
-        <v>7.081283484476588E-05</v>
-      </c>
-      <c r="T34">
-        <v>7.081283484476589E-05</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G35">
-        <v>0.4573603333333334</v>
-      </c>
-      <c r="H35">
-        <v>1.372081</v>
-      </c>
-      <c r="I35">
-        <v>0.03083296148325295</v>
-      </c>
-      <c r="J35">
-        <v>0.03083296148325296</v>
-      </c>
-      <c r="K35">
-        <v>3</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>43.864011</v>
-      </c>
-      <c r="N35">
-        <v>131.592033</v>
-      </c>
-      <c r="O35">
-        <v>0.3815267043894944</v>
-      </c>
-      <c r="P35">
-        <v>0.3815267043894944</v>
-      </c>
-      <c r="Q35">
-        <v>20.061658692297</v>
-      </c>
-      <c r="R35">
-        <v>180.554928230673</v>
-      </c>
-      <c r="S35">
-        <v>0.01176359818127372</v>
-      </c>
-      <c r="T35">
-        <v>0.01176359818127372</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G36">
-        <v>0.4573603333333334</v>
-      </c>
-      <c r="H36">
-        <v>1.372081</v>
-      </c>
-      <c r="I36">
-        <v>0.03083296148325295</v>
-      </c>
-      <c r="J36">
-        <v>0.03083296148325296</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>0.763133</v>
-      </c>
-      <c r="N36">
-        <v>2.289399</v>
-      </c>
-      <c r="O36">
-        <v>0.006637687978440185</v>
-      </c>
-      <c r="P36">
-        <v>0.006637687978440185</v>
-      </c>
-      <c r="Q36">
-        <v>0.3490267632576667</v>
-      </c>
-      <c r="R36">
-        <v>3.141240869319</v>
-      </c>
-      <c r="S36">
-        <v>0.0002046595777770974</v>
-      </c>
-      <c r="T36">
-        <v>0.0002046595777770975</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G37">
-        <v>0.4573603333333334</v>
-      </c>
-      <c r="H37">
-        <v>1.372081</v>
-      </c>
-      <c r="I37">
-        <v>0.03083296148325295</v>
-      </c>
-      <c r="J37">
-        <v>0.03083296148325296</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>1.226170666666667</v>
-      </c>
-      <c r="N37">
-        <v>3.678512</v>
-      </c>
-      <c r="O37">
-        <v>0.01066516360011862</v>
-      </c>
-      <c r="P37">
-        <v>0.01066516360011862</v>
-      </c>
-      <c r="Q37">
-        <v>0.5608018248302223</v>
-      </c>
-      <c r="R37">
-        <v>5.047216423472</v>
-      </c>
-      <c r="S37">
-        <v>0.0003288385784950488</v>
-      </c>
-      <c r="T37">
-        <v>0.0003288385784950488</v>
+        <v>0.0001848033897881129</v>
       </c>
     </row>
   </sheetData>
